--- a/Visuals/graph_syria_idp.xlsx
+++ b/Visuals/graph_syria_idp.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marissamarinello/Desktop/Final_Project/Visuals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{33D851F1-82F9-E241-9ED3-FF8C3A9BDBF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE389C6-9115-2B4F-82FE-5062B6FB9FE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="syriaIDP" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.4" hidden="1">syriaIDP!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">syriaIDP!$B$2:$B$7</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">syriaIDP!$D$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">syriaIDP!$D$2:$D$7</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">syriaIDP!$B$1</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">syriaIDP!$B$2:$B$7</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">syriaIDP!$D$1</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">syriaIDP!$D$2:$D$7</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -40,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -518,8 +528,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1250,7 +1261,364 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Syria - IDPs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>syriaIDP!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IDPs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="71D0C6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>syriaIDP!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>syriaIDP!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2016500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6520800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7632500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6563462</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6325978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6150005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69AA-174F-ACEC-AB7E9A8604D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1775686335"/>
+        <c:axId val="1775294047"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1775686335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1775294047"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1775294047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1775686335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1793,6 +2161,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1826,6 +2697,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2DC55FE-1659-994E-9373-17226C373217}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2130,11 +3037,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2163,7 +3070,7 @@
       <c r="B2">
         <v>2012</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>2016500</v>
       </c>
       <c r="F2">

--- a/Visuals/graph_syria_idp.xlsx
+++ b/Visuals/graph_syria_idp.xlsx
@@ -8,29 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marissamarinello/Desktop/Final_Project/Visuals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE389C6-9115-2B4F-82FE-5062B6FB9FE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BB0A83-12DA-9245-B2B7-BD9C2A0629FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9820" yWindow="1320" windowWidth="18440" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="syriaIDP" sheetId="1" r:id="rId1"/>
+    <sheet name="% change" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.4" hidden="1">syriaIDP!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">syriaIDP!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">syriaIDP!$D$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">syriaIDP!$D$2:$D$7</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">syriaIDP!$B$1</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">syriaIDP!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">syriaIDP!$D$1</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">syriaIDP!$D$2:$D$7</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Year</t>
   </si>
@@ -46,12 +45,21 @@
   <si>
     <t>IDPs</t>
   </si>
+  <si>
+    <t>Table 4</t>
+  </si>
+  <si>
+    <t>% Change</t>
+  </si>
+  <si>
+    <t>Percent Change in IDP's per year - Syria</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,6 +193,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -368,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -483,8 +511,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -527,12 +635,64 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="17" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -572,6 +732,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -908,7 +1069,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="#,##0">
                   <c:v>2016500</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1392,7 +1553,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="#,##0">
                   <c:v>2016500</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -2668,16 +2829,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2704,16 +2865,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3040,8 +3201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" activeCellId="1" sqref="B1:B7 D1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3160,4 +3321,123 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B99640B-FE53-4242-960C-401BF4212FE1}">
+  <dimension ref="C3:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="13.5" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="9">
+        <v>2012</v>
+      </c>
+      <c r="D7" s="17">
+        <v>2016500</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="9">
+        <v>2013</v>
+      </c>
+      <c r="D8" s="10">
+        <v>6520800</v>
+      </c>
+      <c r="E8" s="11">
+        <f>(D8-D7)/D7</f>
+        <v>2.2337217951896853</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="9">
+        <v>2014</v>
+      </c>
+      <c r="D9" s="10">
+        <v>7632500</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" ref="E9:E12" si="0">(D9-D8)/D8</f>
+        <v>0.17048521653784812</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="9">
+        <v>2015</v>
+      </c>
+      <c r="D10" s="10">
+        <v>6563462</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.14006393711103832</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="9">
+        <v>2016</v>
+      </c>
+      <c r="D11" s="10">
+        <v>6325978</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>-3.6182734051023679E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="18">
+        <v>2017</v>
+      </c>
+      <c r="D12" s="5">
+        <v>6150005</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="0"/>
+        <v>-2.7817516912009496E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>